--- a/data/trans_camb/P14B34-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P14B34-Clase-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>0.6506235442620604</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9707336338490625</v>
+        <v>0.9707336338490623</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4951948115614505</v>
+        <v>0.4808502907161688</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1749670072862837</v>
+        <v>0.1751804200146068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4250608093326839</v>
+        <v>0.393676615755841</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.473401240193218</v>
+        <v>3.655095311516614</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.973992225973733</v>
+        <v>1.84909345391989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.977699149318172</v>
+        <v>2.101977934046288</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>1.378343933364252</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2226068891889842</v>
+        <v>0.2226068891889841</v>
       </c>
     </row>
     <row r="11">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.226257208232451</v>
+        <v>1.245483703077523</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2571564855940678</v>
+        <v>0.2577418035392609</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.317229564209741</v>
+        <v>4.451405992825054</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.657764726532338</v>
+        <v>3.46023929777408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.804639680143753</v>
+        <v>0.8193297019681091</v>
       </c>
     </row>
     <row r="13">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4897201434807403</v>
+        <v>0.3414666963485859</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7193765015681118</v>
+        <v>0.6939909678506238</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4353922256748985</v>
+        <v>0.4929175090169182</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.619500747620403</v>
+        <v>2.492653030722512</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.937941599794086</v>
+        <v>2.896494151679804</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.604471592978793</v>
+        <v>2.517087078718507</v>
       </c>
     </row>
     <row r="19">
@@ -890,7 +890,7 @@
         <v>0.7538298414944397</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.233278809903462</v>
+        <v>1.233278809903461</v>
       </c>
     </row>
     <row r="23">
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.071224370097662</v>
+        <v>1.1253922632733</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3800912848801269</v>
+        <v>0.3909400084701554</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.778471914734342</v>
+        <v>0.7540362012376675</v>
       </c>
     </row>
     <row r="24">
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.661018267136841</v>
+        <v>2.645335199571078</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.521255017241392</v>
+        <v>1.466715673255288</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.85471334729072</v>
+        <v>1.803971307523544</v>
       </c>
     </row>
     <row r="25">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.325899738655776</v>
+        <v>1.433264471511877</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.232357664702725</v>
+        <v>1.280166295746068</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8623020951566082</v>
+        <v>0.8874506594261182</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.385435685819696</v>
+        <v>4.201602618757293</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.483287158614988</v>
+        <v>3.537367094644166</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.599904060317851</v>
+        <v>2.464505233363032</v>
       </c>
     </row>
     <row r="31">
@@ -1177,13 +1177,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.281746629827478</v>
+        <v>1.302355215781987</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.778064886859784</v>
+        <v>0.8052546085423964</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.7462576141796662</v>
+        <v>0.7555283562089181</v>
       </c>
     </row>
     <row r="42">
@@ -1194,13 +1194,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.175609915661611</v>
+        <v>2.248077000105412</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.524481847056082</v>
+        <v>1.506744266130334</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.342678826597876</v>
+        <v>1.340883970606704</v>
       </c>
     </row>
     <row r="43">
